--- a/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{947E1C34-8AF7-491C-9F26-CC843ACB3F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B892572B-F204-4171-BBF0-3DE6B2919D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3CDCFAC-6023-4B55-B17B-D065B998059F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F139CFB9-EF01-44B9-9381-58C5EEE45A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>9,03%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>8,95%</t>
@@ -107,19 +107,19 @@
     <t>90,97%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>92,27%</t>
@@ -128,7 +128,7 @@
     <t>91,05%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,685 +140,673 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>82,24%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
   </si>
   <si>
     <t>85,32%</t>
@@ -1341,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FD4F8-ABFE-4AC5-9D07-78CCE379CD44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D98F893-3F93-40B0-81B1-8FAD164C2219}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1686,7 @@
         <v>2636</v>
       </c>
       <c r="N8" s="7">
-        <v>2710748</v>
+        <v>2710749</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1749,7 +1737,7 @@
         <v>3194</v>
       </c>
       <c r="N9" s="7">
-        <v>3272546</v>
+        <v>3272547</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B9590-2724-4142-BBC9-B7E08A7A2A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62558676-D5E7-4CD9-BBF8-D978DF160203}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,13 +2204,13 @@
         <v>109971</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -2231,13 +2219,13 @@
         <v>126604</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>224</v>
@@ -2246,13 +2234,13 @@
         <v>236576</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2255,13 @@
         <v>856419</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1115</v>
@@ -2282,13 +2270,13 @@
         <v>1195323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1908</v>
@@ -2297,13 +2285,13 @@
         <v>2051742</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2359,13 @@
         <v>382811</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>265</v>
@@ -2386,13 +2374,13 @@
         <v>277698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>642</v>
@@ -2401,13 +2389,13 @@
         <v>660508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2410,13 @@
         <v>1567620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1355</v>
@@ -2437,13 +2425,13 @@
         <v>1464054</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>2821</v>
@@ -2452,13 +2440,13 @@
         <v>3031676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2514,13 @@
         <v>105123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2541,13 +2529,13 @@
         <v>69331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -2556,13 +2544,13 @@
         <v>174455</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2565,13 @@
         <v>370106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>344</v>
@@ -2592,13 +2580,13 @@
         <v>386337</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>677</v>
@@ -2607,13 +2595,13 @@
         <v>756442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2669,13 @@
         <v>597905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>447</v>
@@ -2696,13 +2684,13 @@
         <v>473634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>1030</v>
@@ -2711,13 +2699,13 @@
         <v>1071539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2720,13 @@
         <v>2794145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>2814</v>
@@ -2747,13 +2735,13 @@
         <v>3045714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>5406</v>
@@ -2762,13 +2750,13 @@
         <v>5839859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F872E06-45B5-4879-AFDB-93EE04F57B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D75AC9E-9177-4FCD-A71D-D5625EB720FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2955,13 @@
         <v>49184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>59</v>
@@ -2982,13 +2970,13 @@
         <v>62520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>105</v>
@@ -2997,13 +2985,13 @@
         <v>111704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3006,13 @@
         <v>697122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>825</v>
@@ -3033,13 +3021,13 @@
         <v>922471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1533</v>
@@ -3048,13 +3036,13 @@
         <v>1619593</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3110,13 @@
         <v>317703</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3137,13 +3125,13 @@
         <v>315761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>604</v>
@@ -3152,13 +3140,13 @@
         <v>633464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3161,13 @@
         <v>1743269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
         <v>1592</v>
@@ -3188,13 +3176,13 @@
         <v>1662113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>3233</v>
@@ -3203,13 +3191,13 @@
         <v>3405382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3265,13 @@
         <v>85369</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -3292,13 +3280,13 @@
         <v>97161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -3307,13 +3295,13 @@
         <v>182531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3316,13 @@
         <v>455893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -3343,13 +3331,13 @@
         <v>445741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>842</v>
@@ -3358,13 +3346,13 @@
         <v>901633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3420,13 @@
         <v>452256</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -3447,13 +3435,13 @@
         <v>475442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>883</v>
@@ -3462,13 +3450,13 @@
         <v>927699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,28 +3471,28 @@
         <v>2896284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>2842</v>
       </c>
       <c r="I14" s="7">
-        <v>3030324</v>
+        <v>3030325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>5608</v>
@@ -3513,13 +3501,13 @@
         <v>5926607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3534,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3505766</v>
+        <v>3505767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E964A570-B933-4F31-89B3-63B5A8F5D609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A631495-0131-4783-91DF-23DBE5E7EB16}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3706,13 @@
         <v>84652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>131</v>
@@ -3733,13 +3721,13 @@
         <v>77287</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>223</v>
@@ -3748,13 +3736,13 @@
         <v>161939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3757,13 @@
         <v>455988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>1295</v>
@@ -3784,13 +3772,13 @@
         <v>758016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1892</v>
@@ -3799,13 +3787,13 @@
         <v>1214004</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3861,13 @@
         <v>392938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>373</v>
@@ -3888,13 +3876,13 @@
         <v>324414</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
@@ -3903,13 +3891,13 @@
         <v>717352</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3912,13 @@
         <v>1762817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>2544</v>
@@ -3939,13 +3927,13 @@
         <v>1922662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4216</v>
@@ -3954,13 +3942,13 @@
         <v>3685479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4016,13 @@
         <v>95211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -4043,13 +4031,13 @@
         <v>99309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -4058,13 +4046,13 @@
         <v>194520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4067,13 @@
         <v>577828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>882</v>
@@ -4094,13 +4082,13 @@
         <v>614577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1471</v>
@@ -4109,13 +4097,13 @@
         <v>1192406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4171,13 @@
         <v>572801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>626</v>
@@ -4198,13 +4186,13 @@
         <v>501010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>1125</v>
@@ -4213,13 +4201,13 @@
         <v>1073812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4222,13 @@
         <v>2796633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>4721</v>
@@ -4249,13 +4237,13 @@
         <v>3295256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>7579</v>
@@ -4264,13 +4252,13 @@
         <v>6091888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B892572B-F204-4171-BBF0-3DE6B2919D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FA5600-2C41-42FE-8F4B-DF2600E3BE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F139CFB9-EF01-44B9-9381-58C5EEE45A4D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6ECE38A3-0400-42E5-A737-EAFEB3463620}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,847 +77,853 @@
     <t>9,03%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>88,61%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>87,82%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>15,46%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>13,85%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>84,54%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>86,15%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D98F893-3F93-40B0-81B1-8FAD164C2219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D2ACC4-DBC9-49BF-BC4D-C08AEA871DEC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,16 +1492,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>944</v>
@@ -1504,13 +1510,13 @@
         <v>935604</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1198</v>
@@ -1519,13 +1525,13 @@
         <v>1224816</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2142</v>
@@ -1534,13 +1540,13 @@
         <v>2160419</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,13 +1561,13 @@
         <v>1028451</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1289</v>
@@ -1570,13 +1576,13 @@
         <v>1312871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2324</v>
@@ -1585,18 +1591,18 @@
         <v>2341322</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1614,13 @@
         <v>320712</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>243</v>
@@ -1623,13 +1629,13 @@
         <v>241086</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>558</v>
@@ -1638,19 +1644,19 @@
         <v>561798</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1330</v>
@@ -1659,13 +1665,13 @@
         <v>1369105</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1306</v>
@@ -1674,13 +1680,13 @@
         <v>1341643</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2636</v>
@@ -1689,13 +1695,13 @@
         <v>2710749</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1716,13 @@
         <v>1689817</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1549</v>
@@ -1725,13 +1731,13 @@
         <v>1582729</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3194</v>
@@ -1740,18 +1746,18 @@
         <v>3272547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1769,13 @@
         <v>99907</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -1778,13 +1784,13 @@
         <v>89801</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -1793,19 +1799,19 @@
         <v>189708</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>426</v>
@@ -1814,13 +1820,13 @@
         <v>450689</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>364</v>
@@ -1829,13 +1835,13 @@
         <v>385598</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -1844,13 +1850,13 @@
         <v>836286</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1871,13 @@
         <v>550596</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>451</v>
@@ -1880,13 +1886,13 @@
         <v>475399</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>977</v>
@@ -1895,13 +1901,13 @@
         <v>1025994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1924,13 @@
         <v>513467</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>421</v>
@@ -1933,13 +1939,13 @@
         <v>418942</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -1948,19 +1954,19 @@
         <v>932409</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2700</v>
@@ -1969,13 +1975,13 @@
         <v>2755397</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2868</v>
@@ -1984,13 +1990,13 @@
         <v>2952057</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5568</v>
@@ -1999,13 +2005,13 @@
         <v>5707455</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2026,13 @@
         <v>3268864</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3289</v>
@@ -2035,13 +2041,13 @@
         <v>3370999</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6495</v>
@@ -2050,18 +2056,18 @@
         <v>6639864</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62558676-D5E7-4CD9-BBF8-D978DF160203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97278B7-E89D-4FB7-8784-88F8383CB16B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2097,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2204,13 +2210,13 @@
         <v>109971</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -2219,13 +2225,13 @@
         <v>126604</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>224</v>
@@ -2234,19 +2240,19 @@
         <v>236576</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>793</v>
@@ -2255,7 +2261,7 @@
         <v>856419</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>97</v>
@@ -2306,13 +2312,13 @@
         <v>966390</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1232</v>
@@ -2321,13 +2327,13 @@
         <v>1321927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2132</v>
@@ -2336,18 +2342,18 @@
         <v>2288318</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2374,13 +2380,13 @@
         <v>277698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>642</v>
@@ -2389,19 +2395,19 @@
         <v>660508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1466</v>
@@ -2410,13 +2416,13 @@
         <v>1567620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1355</v>
@@ -2425,13 +2431,13 @@
         <v>1464054</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>2821</v>
@@ -2440,13 +2446,13 @@
         <v>3031676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2467,13 @@
         <v>1950431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1620</v>
@@ -2476,13 +2482,13 @@
         <v>1741752</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3463</v>
@@ -2491,18 +2497,18 @@
         <v>3692184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2514,13 +2520,13 @@
         <v>105123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2529,13 +2535,13 @@
         <v>69331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -2544,19 +2550,19 @@
         <v>174455</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>333</v>
@@ -2565,13 +2571,13 @@
         <v>370106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>344</v>
@@ -2580,13 +2586,13 @@
         <v>386337</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>677</v>
@@ -2595,13 +2601,13 @@
         <v>756442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2622,13 @@
         <v>475229</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>409</v>
@@ -2631,13 +2637,13 @@
         <v>455668</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>841</v>
@@ -2646,13 +2652,13 @@
         <v>930897</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2675,13 @@
         <v>597905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>447</v>
@@ -2684,13 +2690,13 @@
         <v>473634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1030</v>
@@ -2699,19 +2705,19 @@
         <v>1071539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2592</v>
@@ -2720,13 +2726,13 @@
         <v>2794145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2814</v>
@@ -2735,13 +2741,13 @@
         <v>3045714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5406</v>
@@ -2750,13 +2756,13 @@
         <v>5839859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2777,13 @@
         <v>3392050</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3261</v>
@@ -2786,13 +2792,13 @@
         <v>3519348</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6436</v>
@@ -2801,18 +2807,18 @@
         <v>6911398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D75AC9E-9177-4FCD-A71D-D5625EB720FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AC1A80-B265-4B5B-AA27-3B702A60DCDF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2961,13 @@
         <v>49184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>59</v>
@@ -2970,13 +2976,13 @@
         <v>62520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>105</v>
@@ -2985,19 +2991,19 @@
         <v>111704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>708</v>
@@ -3006,13 +3012,13 @@
         <v>697122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>825</v>
@@ -3021,13 +3027,13 @@
         <v>922471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1533</v>
@@ -3036,13 +3042,13 @@
         <v>1619593</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3063,13 @@
         <v>746306</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>884</v>
@@ -3072,13 +3078,13 @@
         <v>984991</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1638</v>
@@ -3087,18 +3093,18 @@
         <v>1731297</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3110,13 +3116,13 @@
         <v>317703</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3125,13 +3131,13 @@
         <v>315761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>604</v>
@@ -3140,19 +3146,19 @@
         <v>633464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1641</v>
@@ -3161,13 +3167,13 @@
         <v>1743269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1592</v>
@@ -3176,13 +3182,13 @@
         <v>1662113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3233</v>
@@ -3191,13 +3197,13 @@
         <v>3405382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3218,13 @@
         <v>2060972</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1899</v>
@@ -3227,13 +3233,13 @@
         <v>1977874</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3837</v>
@@ -3242,18 +3248,18 @@
         <v>4038846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3271,13 @@
         <v>85369</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -3280,13 +3286,13 @@
         <v>97161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -3295,19 +3301,19 @@
         <v>182531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>417</v>
@@ -3316,13 +3322,13 @@
         <v>455893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -3331,13 +3337,13 @@
         <v>445741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>842</v>
@@ -3346,13 +3352,13 @@
         <v>901633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3373,13 @@
         <v>541262</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>520</v>
@@ -3382,13 +3388,13 @@
         <v>542902</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1016</v>
@@ -3397,13 +3403,13 @@
         <v>1084164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3426,13 @@
         <v>452256</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -3435,13 +3441,13 @@
         <v>475442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>883</v>
@@ -3450,19 +3456,19 @@
         <v>927699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2766</v>
@@ -3471,28 +3477,28 @@
         <v>2896284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2842</v>
       </c>
       <c r="I14" s="7">
-        <v>3030325</v>
+        <v>3030324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>5608</v>
@@ -3501,13 +3507,13 @@
         <v>5926607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,28 +3528,28 @@
         <v>3348540</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3505767</v>
+        <v>3505766</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6491</v>
@@ -3552,18 +3558,18 @@
         <v>6854306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A631495-0131-4783-91DF-23DBE5E7EB16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0771BBC4-83AC-41DA-A55B-F654CDD4FD1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3712,13 @@
         <v>84652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>131</v>
@@ -3721,13 +3727,13 @@
         <v>77287</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>223</v>
@@ -3736,19 +3742,19 @@
         <v>161939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>597</v>
@@ -3757,13 +3763,13 @@
         <v>455988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>1295</v>
@@ -3772,13 +3778,13 @@
         <v>758016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1892</v>
@@ -3787,13 +3793,13 @@
         <v>1214004</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3814,13 @@
         <v>540640</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1426</v>
@@ -3823,13 +3829,13 @@
         <v>835303</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2115</v>
@@ -3838,18 +3844,18 @@
         <v>1375943</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3861,13 +3867,13 @@
         <v>392938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>373</v>
@@ -3876,13 +3882,13 @@
         <v>324414</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
@@ -3891,19 +3897,19 @@
         <v>717352</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1672</v>
@@ -3912,13 +3918,13 @@
         <v>1762817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2544</v>
@@ -3927,13 +3933,13 @@
         <v>1922662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4216</v>
@@ -3942,13 +3948,13 @@
         <v>3685479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3969,13 @@
         <v>2155755</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2917</v>
@@ -3978,13 +3984,13 @@
         <v>2247076</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4904</v>
@@ -3993,18 +3999,18 @@
         <v>4402831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4016,13 +4022,13 @@
         <v>95211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -4031,13 +4037,13 @@
         <v>99309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -4046,19 +4052,19 @@
         <v>194520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>589</v>
@@ -4067,13 +4073,13 @@
         <v>577828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>882</v>
@@ -4082,13 +4088,13 @@
         <v>614577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1471</v>
@@ -4097,13 +4103,13 @@
         <v>1192406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4124,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -4133,13 +4139,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -4148,13 +4154,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4177,13 @@
         <v>572801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>626</v>
@@ -4186,13 +4192,13 @@
         <v>501010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>1125</v>
@@ -4201,19 +4207,19 @@
         <v>1073812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2858</v>
@@ -4222,13 +4228,13 @@
         <v>2796633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>4721</v>
@@ -4237,13 +4243,13 @@
         <v>3295256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>7579</v>
@@ -4252,13 +4258,13 @@
         <v>6091888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4279,13 @@
         <v>3369434</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5347</v>
@@ -4288,13 +4294,13 @@
         <v>3796266</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8704</v>
@@ -4303,18 +4309,18 @@
         <v>7165700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FA5600-2C41-42FE-8F4B-DF2600E3BE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1542854F-7679-40F9-8422-65CB17D44329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6ECE38A3-0400-42E5-A737-EAFEB3463620}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{813D7A3C-5C98-4907-834F-FD2657AFB53C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -728,202 +728,208 @@
     <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D2ACC4-DBC9-49BF-BC4D-C08AEA871DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C663F7A-4394-4B49-B83F-7FDC6F097716}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1537,7 +1543,7 @@
         <v>2142</v>
       </c>
       <c r="N5" s="7">
-        <v>2160419</v>
+        <v>2160420</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1588,7 +1594,7 @@
         <v>2324</v>
       </c>
       <c r="N6" s="7">
-        <v>2341322</v>
+        <v>2341323</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -2086,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97278B7-E89D-4FB7-8784-88F8383CB16B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F22BB5-CFE7-432E-A21C-C29FB3681984}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,7 +2759,7 @@
         <v>5406</v>
       </c>
       <c r="N14" s="7">
-        <v>5839859</v>
+        <v>5839860</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>156</v>
@@ -2804,7 +2810,7 @@
         <v>6436</v>
       </c>
       <c r="N15" s="7">
-        <v>6911398</v>
+        <v>6911399</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -2837,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AC1A80-B265-4B5B-AA27-3B702A60DCDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3B69B-4F02-4C0B-BF25-1569932E27B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3489,7 +3495,7 @@
         <v>2842</v>
       </c>
       <c r="I14" s="7">
-        <v>3030324</v>
+        <v>3030325</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>222</v>
@@ -3540,7 +3546,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3505766</v>
+        <v>3505767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3588,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0771BBC4-83AC-41DA-A55B-F654CDD4FD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA199782-5929-4F02-9E93-545EFAECE683}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3715,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="7">
-        <v>84652</v>
+        <v>77197</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3724,7 +3730,7 @@
         <v>131</v>
       </c>
       <c r="I4" s="7">
-        <v>77287</v>
+        <v>69357</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3739,7 +3745,7 @@
         <v>223</v>
       </c>
       <c r="N4" s="7">
-        <v>161939</v>
+        <v>146554</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3760,7 +3766,7 @@
         <v>597</v>
       </c>
       <c r="D5" s="7">
-        <v>455988</v>
+        <v>436801</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3775,7 +3781,7 @@
         <v>1295</v>
       </c>
       <c r="I5" s="7">
-        <v>758016</v>
+        <v>685558</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3790,7 +3796,7 @@
         <v>1892</v>
       </c>
       <c r="N5" s="7">
-        <v>1214004</v>
+        <v>1122359</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3811,7 +3817,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540640</v>
+        <v>513998</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -3826,7 +3832,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>835303</v>
+        <v>754915</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3841,7 +3847,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1375943</v>
+        <v>1268913</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -3864,46 +3870,46 @@
         <v>315</v>
       </c>
       <c r="D7" s="7">
-        <v>392938</v>
+        <v>364936</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>373</v>
       </c>
       <c r="I7" s="7">
-        <v>324414</v>
+        <v>290402</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
       </c>
       <c r="N7" s="7">
-        <v>717352</v>
+        <v>655339</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3921,46 @@
         <v>1672</v>
       </c>
       <c r="D8" s="7">
-        <v>1762817</v>
+        <v>1919045</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>2544</v>
       </c>
       <c r="I8" s="7">
-        <v>1922662</v>
+        <v>1945360</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4216</v>
       </c>
       <c r="N8" s="7">
-        <v>3685479</v>
+        <v>3864404</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3972,7 @@
         <v>1987</v>
       </c>
       <c r="D9" s="7">
-        <v>2155755</v>
+        <v>2283981</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3981,7 +3987,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247076</v>
+        <v>2235762</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3996,7 +4002,7 @@
         <v>4904</v>
       </c>
       <c r="N9" s="7">
-        <v>4402831</v>
+        <v>4519743</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4019,46 +4025,46 @@
         <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>95211</v>
+        <v>89884</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
       </c>
       <c r="I10" s="7">
-        <v>99309</v>
+        <v>90266</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
       </c>
       <c r="N10" s="7">
-        <v>194520</v>
+        <v>180150</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,43 +4076,43 @@
         <v>589</v>
       </c>
       <c r="D11" s="7">
-        <v>577828</v>
+        <v>556739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>882</v>
       </c>
       <c r="I11" s="7">
-        <v>614577</v>
+        <v>570197</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1471</v>
       </c>
       <c r="N11" s="7">
-        <v>1192406</v>
+        <v>1126936</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>280</v>
@@ -4121,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -4136,7 +4142,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4151,7 +4157,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4174,7 +4180,7 @@
         <v>499</v>
       </c>
       <c r="D13" s="7">
-        <v>572801</v>
+        <v>532017</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4183,16 +4189,16 @@
         <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>626</v>
       </c>
       <c r="I13" s="7">
-        <v>501010</v>
+        <v>450026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>284</v>
@@ -4204,7 +4210,7 @@
         <v>1125</v>
       </c>
       <c r="N13" s="7">
-        <v>1073812</v>
+        <v>982043</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>286</v>
@@ -4213,7 +4219,7 @@
         <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4231,46 @@
         <v>2858</v>
       </c>
       <c r="D14" s="7">
-        <v>2796633</v>
+        <v>2912585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>4721</v>
       </c>
       <c r="I14" s="7">
-        <v>3295256</v>
+        <v>3201114</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7579</v>
       </c>
       <c r="N14" s="7">
-        <v>6091888</v>
+        <v>6113699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4282,7 @@
         <v>3357</v>
       </c>
       <c r="D15" s="7">
-        <v>3369434</v>
+        <v>3444602</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4291,7 +4297,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796266</v>
+        <v>3651140</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4306,7 +4312,7 @@
         <v>8704</v>
       </c>
       <c r="N15" s="7">
-        <v>7165700</v>
+        <v>7095742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>

--- a/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2007</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2012</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2016</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2023</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
